--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/7-ITESO/Microestructura y Sistemas de Trading/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8B8007-3402-3949-9E98-FF3C61CAAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A117C-2976-5048-B01D-FB327BD15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17320" xr2:uid="{C67D5A9D-04D2-9643-AABF-8F83FF5B4C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,11 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -146,23 +144,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>253168</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E599F9B9-8C45-7EA3-BEF7-598A77F405A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5428E229-244D-27CF-E8F6-5B5C8AFD856C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -178,52 +176,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12700"/>
-          <a:ext cx="9193968" cy="2921000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>135046</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BFE970-AB3D-388C-F2C5-D275A7B543A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3594099"/>
-          <a:ext cx="9296400" cy="3043347"/>
+          <a:off x="939800" y="1384300"/>
+          <a:ext cx="7772400" cy="611209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22E1AF2-0678-BF49-9F77-67CC08CC3359}">
-  <dimension ref="B2:M38"/>
+  <dimension ref="B4:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,160 +519,105 @@
     <col min="6" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M2" s="1">
-        <v>42964</v>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M3" s="1">
-        <v>45894</v>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>4553</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45718.666666666664</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45718.666666666664</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>87428</v>
+      </c>
+      <c r="G5" s="2">
+        <v>91959.99</v>
+      </c>
+      <c r="H5" s="2">
+        <v>87278.51</v>
+      </c>
+      <c r="I5" s="2">
+        <v>91200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11741.727010000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1056043000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1273816</v>
       </c>
     </row>
-    <row r="5" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M5">
-        <f>M3-M2</f>
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="6" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M7">
-        <f>M5*M6</f>
-        <v>70320</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M21" s="1">
-        <v>42964</v>
-      </c>
-    </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M22" s="1">
-        <v>45922</v>
-      </c>
-    </row>
-    <row r="24" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M24">
-        <f>M22-M21</f>
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="25" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M26">
-        <f>M24*M25</f>
-        <v>70992</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="4">
-        <v>4553</v>
-      </c>
-      <c r="C37" s="6">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4554</v>
+      </c>
+      <c r="C6" s="4">
         <v>45718.666666666664</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D6" s="4">
         <v>45718.666666666664</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F6" s="2">
         <v>87428</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G6" s="2">
         <v>91959.99</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H6" s="2">
         <v>87278.51</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I6" s="2">
         <v>91200</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J6" s="2">
         <v>11741.727010000001</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K6" s="3">
         <v>1056043000</v>
       </c>
-      <c r="L37" s="4">
-        <v>1273816</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="4">
-        <v>4554</v>
-      </c>
-      <c r="C38" s="6">
-        <v>45718.666666666664</v>
-      </c>
-      <c r="D38" s="6">
-        <v>45718.666666666664</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4">
-        <v>87428</v>
-      </c>
-      <c r="G38" s="4">
-        <v>91959.99</v>
-      </c>
-      <c r="H38" s="4">
-        <v>87278.51</v>
-      </c>
-      <c r="I38" s="4">
-        <v>91200</v>
-      </c>
-      <c r="J38" s="4">
-        <v>11741.727010000001</v>
-      </c>
-      <c r="K38" s="5">
-        <v>1056043000</v>
-      </c>
-      <c r="L38" s="4">
+      <c r="L6" s="2">
         <v>1273816</v>
       </c>
     </row>
